--- a/live_quiz/2023 M7 Quality Management Problems 3 and 4.xlsx
+++ b/live_quiz/2023 M7 Quality Management Problems 3 and 4.xlsx
@@ -1,61 +1,107 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gopesh\Box\1_iMBA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\D-Developer\UIUC-BADM567-Process-Management\live_quiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73A71D87-7B88-44AC-8C2F-29F9C5EF690B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="22410" yWindow="1800" windowWidth="15680" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Problems 3 and 4" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Day</t>
   </si>
   <si>
     <t>Errors (Defects)</t>
+  </si>
+  <si>
+    <t>total</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>average</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>std</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>upper</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>lower</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -81,16 +127,16 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -370,19 +416,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -390,7 +436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15.5">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -398,7 +444,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15.5">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -406,7 +452,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="15.5">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -414,7 +460,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="15.5">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -422,7 +468,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="15.5">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -430,7 +476,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="15.5">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -438,7 +484,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="15.5">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -446,7 +492,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="15.5">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -454,7 +500,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="15.5">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -462,7 +508,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="15.5">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -470,11 +516,53 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <f>SUM(B2:B11)</f>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="4">
+        <f>AVERAGE(B2:B11)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <f>SQRT(B14)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="4">
+        <f>B14+B15*3</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="4">
+        <f>B14-B15*3</f>
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
